--- a/StagesTempletEXcel.xlsx
+++ b/StagesTempletEXcel.xlsx
@@ -1,24 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ppp\aldy\Purebred_horses\38\backend\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="StagesTemplet" sheetId="1" r:id="rId1"/>
+    <sheet r:id="rId1" sheetId="1" name="StagesTemplet"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="52">
   <si>
     <t>StageID</t>
   </si>
@@ -67,19 +63,19 @@
     </r>
     <r>
       <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
         <rFont val="Arial"/>
-        <charset val="178"/>
-        <sz val="10"/>
-        <scheme val="none"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">+ </t>
     </r>
     <r>
       <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
         <rFont val="Tahoma"/>
-        <charset val="178"/>
-        <sz val="10"/>
-        <scheme val="none"/>
+        <family val="2"/>
       </rPr>
       <t>الخزان</t>
     </r>
@@ -93,18 +89,19 @@
     </r>
     <r>
       <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
         <rFont val="Arial"/>
-        <charset val="178"/>
-        <sz val="10"/>
-        <scheme val="none"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">+ </t>
     </r>
     <r>
       <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
         <rFont val="Tahoma"/>
-        <sz val="10"/>
-        <scheme val="none"/>
+        <family val="2"/>
       </rPr>
       <t>تمديدات المجاري</t>
     </r>
@@ -114,29 +111,32 @@
   </si>
   <si>
     <r>
+      <t/>
+    </r>
+    <r>
       <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
         <rFont val="Tahoma"/>
-        <charset val="178"/>
-        <sz val="10"/>
-        <scheme val="none"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">أعمال أعمدة الأرضي </t>
     </r>
     <r>
       <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
         <rFont val="Arial"/>
-        <charset val="178"/>
-        <sz val="10"/>
-        <scheme val="none"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">+ </t>
     </r>
     <r>
       <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
         <rFont val="Tahoma"/>
-        <charset val="178"/>
-        <sz val="10"/>
-        <scheme val="none"/>
+        <family val="2"/>
       </rPr>
       <t>مباني الأرضي</t>
     </r>
@@ -146,29 +146,32 @@
   </si>
   <si>
     <r>
+      <t/>
+    </r>
+    <r>
       <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
         <rFont val="Tahoma"/>
-        <charset val="178"/>
-        <sz val="10"/>
-        <scheme val="none"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">أعمال أعمدة الدور الأول </t>
     </r>
     <r>
       <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
         <rFont val="Arial"/>
-        <charset val="178"/>
-        <sz val="10"/>
-        <scheme val="none"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">+ </t>
     </r>
     <r>
       <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
         <rFont val="Tahoma"/>
-        <charset val="178"/>
-        <sz val="10"/>
-        <scheme val="none"/>
+        <family val="2"/>
       </rPr>
       <t>مباني الأول</t>
     </r>
@@ -178,29 +181,32 @@
   </si>
   <si>
     <r>
+      <t/>
+    </r>
+    <r>
       <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
         <rFont val="Tahoma"/>
-        <charset val="178"/>
-        <sz val="10"/>
-        <scheme val="none"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">أعمال أعمدة الدور الثاني </t>
     </r>
     <r>
       <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
         <rFont val="Arial"/>
-        <charset val="178"/>
-        <sz val="10"/>
-        <scheme val="none"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">+ </t>
     </r>
     <r>
       <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
         <rFont val="Tahoma"/>
-        <charset val="178"/>
-        <sz val="10"/>
-        <scheme val="none"/>
+        <family val="2"/>
       </rPr>
       <t>مباني الدور الثاني</t>
     </r>
@@ -232,66 +238,69 @@
     </r>
     <r>
       <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
         <rFont val="Arial"/>
-        <charset val="178"/>
-        <sz val="10"/>
-        <scheme val="none"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">+ </t>
     </r>
     <r>
       <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
         <rFont val="Tahoma"/>
-        <charset val="178"/>
-        <sz val="10"/>
-        <scheme val="none"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">الخزان </t>
     </r>
     <r>
       <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
         <rFont val="Arial"/>
-        <charset val="178"/>
-        <sz val="10"/>
-        <scheme val="none"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">+ </t>
     </r>
     <r>
       <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
         <rFont val="Tahoma"/>
-        <charset val="178"/>
-        <sz val="10"/>
-        <scheme val="none"/>
+        <family val="2"/>
       </rPr>
       <t>دفان القواعد + العزل</t>
     </r>
   </si>
   <si>
     <r>
+      <t/>
+    </r>
+    <r>
       <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
         <rFont val="Tahoma"/>
-        <charset val="178"/>
-        <sz val="10"/>
-        <scheme val="none"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">اعمدة الدور الأرضي </t>
     </r>
     <r>
       <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
         <rFont val="Arial"/>
-        <charset val="178"/>
-        <sz val="10"/>
-        <scheme val="none"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">+ </t>
     </r>
     <r>
       <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
         <rFont val="Tahoma"/>
-        <charset val="178"/>
-        <sz val="10"/>
-        <scheme val="none"/>
+        <family val="2"/>
       </rPr>
       <t>مباني الدور الأرضي</t>
     </r>
@@ -360,22 +369,33 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
+  <numFmts count="0"/>
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
-      <sz val="10"/>
-      <name val="Tahoma"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
       <family val="2"/>
-      <charset val="178"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
-      <charset val="178"/>
+      <family val="2"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Tahoma"/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="6">
@@ -387,63 +407,138 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
+        <fgColor rgb="FFdae3f3"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
+        <fgColor rgb="FFffff00"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
+        <fgColor rgb="FFfbe5d6"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC000"/>
-        <bgColor indexed="64"/>
+        <fgColor rgb="FFffc000"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
-    <border/>
+  <borders count="3">
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFc6c6c6"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFc6c6c6"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFc6c6c6"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFc6c6c6"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+  <cellXfs count="19">
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="4" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="4" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="4" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="5" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="5" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle xfId="0" builtinId="0" name="Normal"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="نسق Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText"/>
+        <a:sysClr lastClr="windowText" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window"/>
+        <a:sysClr lastClr="window" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -470,116 +565,82 @@
         <a:srgbClr val="70AD47"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="0000FF"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Times New Roman" script="Arab"/>
+        <a:font typeface="Times New Roman" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="MoolBoran" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Times New Roman" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Arial" script="Arab"/>
+        <a:font typeface="Arial" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="DaunPenh" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Arial" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -591,1173 +652,1392 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="35000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-          <a:tileRect/>
+          <a:lin scaled="1" ang="16200000"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
+                <a:tint val="51000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="80000">
               <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
+                <a:tint val="15000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
+                <a:tint val="94000"/>
+                <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-          <a:tileRect/>
+          <a:lin scaled="1" ang="16200000"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="9500"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot rev="0" lon="0" lat="0"/>
+            </a:camera>
+            <a:lightRig dir="t" rig="threePt">
+              <a:rot rev="1200000" lon="0" lat="0"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="40000">
               <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
+                <a:tint val="20000"/>
+                <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-          <a:tileRect/>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="A1:G70"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G48" sqref="G48"/>
-    </sheetView>
+    <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.570313" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.42578" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="37" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.570313" customWidth="1"/>
-    <col min="5" max="5" width="9.285156" customWidth="1"/>
-    <col min="6" max="6" width="8.570313" customWidth="1"/>
-    <col min="7" max="7" width="9.855469" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="24.42578" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="20.85547" bestFit="1" customWidth="1"/>
-    <col min="10" max="1025" width="11.71094" customWidth="1"/>
+    <col min="1" max="1" style="16" width="7.576428571428571" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="17" width="14.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="17" width="37.005" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="16" width="5.576428571428571" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="18" width="9.290714285714287" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="18" width="8.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="18" width="9.862142857142858" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2">
+      <c r="E2" s="5"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
+      <c r="A3" s="7">
         <v>1</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="2" t="s">
+      <c r="B3" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D3" s="7">
         <v>63</v>
       </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2">
+      <c r="E3" s="5"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
+      <c r="A4" s="7">
         <v>2</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="2" t="s">
+      <c r="B4" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="2">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2">
+      <c r="D4" s="7">
+        <v>14</v>
+      </c>
+      <c r="E4" s="5"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
+      <c r="A5" s="7">
         <v>3</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" s="2" t="s">
+      <c r="B5" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D5" s="7">
         <v>28</v>
       </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2">
+      <c r="E5" s="5"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
+      <c r="A6" s="7">
         <v>4</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D6" s="2">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2">
+      <c r="B6" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="7">
+        <v>14</v>
+      </c>
+      <c r="E6" s="5"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
+      <c r="A7" s="7">
         <v>5</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" s="2" t="s">
+      <c r="B7" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="2">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2">
+      <c r="D7" s="7">
+        <v>14</v>
+      </c>
+      <c r="E7" s="5"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
+      <c r="A8" s="7">
         <v>6</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" s="2" t="s">
+      <c r="B8" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="D8" s="2">
+      <c r="D8" s="7">
         <v>21</v>
       </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2">
+      <c r="E8" s="5"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
+      <c r="A9" s="7">
         <v>7</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C9" s="2" t="s">
+      <c r="B9" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="D9" s="2">
+      <c r="D9" s="7">
         <v>7</v>
       </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2">
+      <c r="E9" s="5"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
+      <c r="A10" s="7">
         <v>8</v>
       </c>
-      <c r="B10" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C10" s="2" t="s">
+      <c r="B10" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D10" s="2">
+      <c r="D10" s="7">
         <v>28</v>
       </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2">
+      <c r="E10" s="5"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5">
+      <c r="A11" s="7">
         <v>9</v>
       </c>
-      <c r="B11" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C11" s="2" t="s">
+      <c r="B11" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D11" s="2">
-        <v>14</v>
-      </c>
-      <c r="F11" s="2">
+      <c r="D11" s="7">
+        <v>14</v>
+      </c>
+      <c r="E11" s="5"/>
+      <c r="F11" s="7">
         <f>SUM(D3:D18)</f>
-        <v>310</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2">
-        <v>10</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C12" s="2" t="s">
+      </c>
+      <c r="G11" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5">
+      <c r="A12" s="7">
+        <v>10</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="D12" s="2">
+      <c r="D12" s="7">
         <v>21</v>
       </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2">
+      <c r="E12" s="5"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="19.5">
+      <c r="A13" s="7">
         <v>11</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C13" s="2" t="s">
+      <c r="B13" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="D13" s="2">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2">
+      <c r="D13" s="7">
+        <v>14</v>
+      </c>
+      <c r="E13" s="5"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="19.5">
+      <c r="A14" s="7">
         <v>12</v>
       </c>
-      <c r="B14" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C14" s="2" t="s">
+      <c r="B14" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="D14" s="2">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2">
+      <c r="D14" s="7">
+        <v>14</v>
+      </c>
+      <c r="E14" s="5"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="19.5">
+      <c r="A15" s="7">
         <v>13</v>
       </c>
-      <c r="B15" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C15" s="2" t="s">
+      <c r="B15" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C15" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="D15" s="2">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="2">
-        <v>14</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C16" s="2" t="s">
+      <c r="D15" s="7">
+        <v>10</v>
+      </c>
+      <c r="E15" s="5"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="19.5">
+      <c r="A16" s="7">
+        <v>14</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="D16" s="2">
+      <c r="D16" s="7">
         <v>28</v>
       </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="2">
+      <c r="E16" s="5"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="19.5">
+      <c r="A17" s="7">
         <v>15</v>
       </c>
-      <c r="B17" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C17" s="2" t="s">
+      <c r="B17" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C17" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="D17" s="2">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="2">
+      <c r="D17" s="7">
+        <v>10</v>
+      </c>
+      <c r="E17" s="5"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="19.5">
+      <c r="A18" s="7">
         <v>16</v>
       </c>
-      <c r="B18" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C18" s="2" t="s">
+      <c r="B18" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C18" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="D18" s="2">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="3">
+      <c r="D18" s="7">
+        <v>10</v>
+      </c>
+      <c r="E18" s="5"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="19.5">
+      <c r="A19" s="9">
         <v>17</v>
       </c>
-      <c r="B19" s="3" t="s">
+      <c r="B19" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="C19" s="3" t="s">
+      <c r="C19" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="D19" s="3">
+      <c r="D19" s="9">
         <v>12</v>
       </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="3">
+      <c r="E19" s="5"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="19.5">
+      <c r="A20" s="9">
         <v>18</v>
       </c>
-      <c r="B20" s="3" t="s">
+      <c r="B20" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="C20" s="3" t="s">
+      <c r="C20" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="D20" s="3">
+      <c r="D20" s="9">
         <v>7</v>
       </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="3">
+      <c r="E20" s="5"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="19.5">
+      <c r="A21" s="9">
         <v>19</v>
       </c>
-      <c r="B21" s="3" t="s">
+      <c r="B21" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="C21" s="3" t="s">
+      <c r="C21" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="D21" s="3">
+      <c r="D21" s="9">
         <v>21</v>
       </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="3">
+      <c r="E21" s="5"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="19.5">
+      <c r="A22" s="9">
         <v>20</v>
       </c>
-      <c r="B22" s="3" t="s">
+      <c r="B22" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="C22" s="3" t="s">
+      <c r="C22" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="D22" s="3">
+      <c r="D22" s="9">
         <v>21</v>
       </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="3">
+      <c r="E22" s="5"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="19.5">
+      <c r="A23" s="9">
         <v>21</v>
       </c>
-      <c r="B23" s="3" t="s">
+      <c r="B23" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="C23" s="3" t="s">
+      <c r="C23" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="D23" s="3">
+      <c r="D23" s="9">
         <v>7</v>
       </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="3">
+      <c r="E23" s="5"/>
+      <c r="F23" s="6"/>
+      <c r="G23" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="19.5">
+      <c r="A24" s="9">
         <v>22</v>
       </c>
-      <c r="B24" s="3" t="s">
+      <c r="B24" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="C24" s="3" t="s">
+      <c r="C24" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="D24" s="3">
+      <c r="D24" s="9">
         <v>28</v>
       </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="3">
+      <c r="E24" s="5"/>
+      <c r="F24" s="6"/>
+      <c r="G24" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="19.5">
+      <c r="A25" s="9">
         <v>23</v>
       </c>
-      <c r="B25" s="3" t="s">
+      <c r="B25" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="C25" s="3" t="s">
+      <c r="C25" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="D25" s="3">
-        <v>14</v>
-      </c>
-      <c r="F25" s="3">
+      <c r="D25" s="9">
+        <v>14</v>
+      </c>
+      <c r="E25" s="5"/>
+      <c r="F25" s="9">
         <f>SUM(D19:D32)</f>
-        <v>210</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="3">
+      </c>
+      <c r="G25" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="19.5">
+      <c r="A26" s="9">
         <v>24</v>
       </c>
-      <c r="B26" s="3" t="s">
+      <c r="B26" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="C26" s="3" t="s">
+      <c r="C26" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="D26" s="3">
+      <c r="D26" s="9">
         <v>21</v>
       </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="3">
+      <c r="E26" s="5"/>
+      <c r="F26" s="6"/>
+      <c r="G26" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="19.5">
+      <c r="A27" s="9">
         <v>25</v>
       </c>
-      <c r="B27" s="3" t="s">
+      <c r="B27" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="C27" s="3" t="s">
+      <c r="C27" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="D27" s="3">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="3">
+      <c r="D27" s="9">
+        <v>14</v>
+      </c>
+      <c r="E27" s="5"/>
+      <c r="F27" s="6"/>
+      <c r="G27" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="19.5">
+      <c r="A28" s="9">
         <v>26</v>
       </c>
-      <c r="B28" s="3" t="s">
+      <c r="B28" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="C28" s="3" t="s">
+      <c r="C28" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="D28" s="3">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="3">
+      <c r="D28" s="9">
+        <v>14</v>
+      </c>
+      <c r="E28" s="5"/>
+      <c r="F28" s="6"/>
+      <c r="G28" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="19.5">
+      <c r="A29" s="9">
         <v>27</v>
       </c>
-      <c r="B29" s="3" t="s">
+      <c r="B29" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="C29" s="3" t="s">
+      <c r="C29" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="D29" s="3">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="3">
+      <c r="D29" s="9">
+        <v>10</v>
+      </c>
+      <c r="E29" s="5"/>
+      <c r="F29" s="6"/>
+      <c r="G29" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="19.5">
+      <c r="A30" s="9">
         <v>28</v>
       </c>
-      <c r="B30" s="3" t="s">
+      <c r="B30" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="C30" s="3" t="s">
+      <c r="C30" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="D30" s="3">
+      <c r="D30" s="9">
         <v>21</v>
       </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="3">
+      <c r="E30" s="5"/>
+      <c r="F30" s="6"/>
+      <c r="G30" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="19.5">
+      <c r="A31" s="9">
         <v>29</v>
       </c>
-      <c r="B31" s="3" t="s">
+      <c r="B31" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="C31" s="3" t="s">
+      <c r="C31" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="D31" s="3">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="3">
+      <c r="D31" s="9">
+        <v>10</v>
+      </c>
+      <c r="E31" s="5"/>
+      <c r="F31" s="6"/>
+      <c r="G31" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="19.5">
+      <c r="A32" s="9">
         <v>30</v>
       </c>
-      <c r="B32" s="3" t="s">
+      <c r="B32" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="C32" s="3" t="s">
+      <c r="C32" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="D32" s="3">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="4">
+      <c r="D32" s="9">
+        <v>10</v>
+      </c>
+      <c r="E32" s="5"/>
+      <c r="F32" s="6"/>
+      <c r="G32" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="19.5">
+      <c r="A33" s="11">
         <v>31</v>
       </c>
-      <c r="B33" s="4" t="s">
+      <c r="B33" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="C33" s="4" t="s">
+      <c r="C33" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="D33" s="4">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="4">
+      <c r="D33" s="11">
+        <v>10</v>
+      </c>
+      <c r="E33" s="5"/>
+      <c r="F33" s="6"/>
+      <c r="G33" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="19.5">
+      <c r="A34" s="11">
         <v>32</v>
       </c>
-      <c r="B34" s="4" t="s">
+      <c r="B34" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="C34" s="4" t="s">
+      <c r="C34" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="D34" s="4">
+      <c r="D34" s="11">
         <v>28</v>
       </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="4">
+      <c r="E34" s="5"/>
+      <c r="F34" s="6"/>
+      <c r="G34" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="19.5">
+      <c r="A35" s="11">
         <v>33</v>
       </c>
-      <c r="B35" s="4" t="s">
+      <c r="B35" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="C35" s="4" t="s">
+      <c r="C35" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="D35" s="4">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="4">
+      <c r="D35" s="11">
+        <v>14</v>
+      </c>
+      <c r="E35" s="5"/>
+      <c r="F35" s="6"/>
+      <c r="G35" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="19.5">
+      <c r="A36" s="11">
         <v>34</v>
       </c>
-      <c r="B36" s="4" t="s">
+      <c r="B36" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="C36" s="4" t="s">
+      <c r="C36" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="D36" s="4">
+      <c r="D36" s="11">
         <v>42</v>
       </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="4">
+      <c r="E36" s="5"/>
+      <c r="F36" s="6"/>
+      <c r="G36" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="19.5">
+      <c r="A37" s="11">
         <v>35</v>
       </c>
-      <c r="B37" s="4" t="s">
+      <c r="B37" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="C37" s="4" t="s">
+      <c r="C37" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="D37" s="4">
+      <c r="D37" s="11">
         <v>7</v>
       </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="4">
+      <c r="E37" s="5"/>
+      <c r="F37" s="6"/>
+      <c r="G37" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="19.5">
+      <c r="A38" s="11">
         <v>36</v>
       </c>
-      <c r="B38" s="4" t="s">
+      <c r="B38" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="C38" s="4" t="s">
+      <c r="C38" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="D38" s="4">
+      <c r="D38" s="11">
         <v>7</v>
       </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="4">
+      <c r="E38" s="5"/>
+      <c r="F38" s="6"/>
+      <c r="G38" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="19.5">
+      <c r="A39" s="11">
         <v>37</v>
       </c>
-      <c r="B39" s="4" t="s">
+      <c r="B39" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="C39" s="4" t="s">
+      <c r="C39" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="D39" s="4">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="4">
+      <c r="D39" s="11">
+        <v>14</v>
+      </c>
+      <c r="E39" s="5"/>
+      <c r="F39" s="6"/>
+      <c r="G39" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="19.5">
+      <c r="A40" s="11">
         <v>38</v>
       </c>
-      <c r="B40" s="4" t="s">
+      <c r="B40" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="C40" s="4" t="s">
+      <c r="C40" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="D40" s="4">
+      <c r="D40" s="11">
         <v>28</v>
       </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="4">
+      <c r="E40" s="5"/>
+      <c r="F40" s="6"/>
+      <c r="G40" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="19.5">
+      <c r="A41" s="11">
         <v>39</v>
       </c>
-      <c r="B41" s="4" t="s">
+      <c r="B41" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="C41" s="4" t="s">
+      <c r="C41" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="D41" s="4">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="4">
+      <c r="D41" s="11">
+        <v>14</v>
+      </c>
+      <c r="E41" s="5"/>
+      <c r="F41" s="6"/>
+      <c r="G41" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="19.5">
+      <c r="A42" s="11">
         <v>40</v>
       </c>
-      <c r="B42" s="4" t="s">
+      <c r="B42" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="C42" s="4" t="s">
+      <c r="C42" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="D42" s="4">
+      <c r="D42" s="11">
         <v>42</v>
       </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="4">
+      <c r="E42" s="5"/>
+      <c r="F42" s="6"/>
+      <c r="G42" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="19.5">
+      <c r="A43" s="11">
         <v>41</v>
       </c>
-      <c r="B43" s="4" t="s">
+      <c r="B43" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="C43" s="5" t="s">
+      <c r="C43" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="D43" s="4">
+      <c r="D43" s="11">
         <v>13</v>
       </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="4">
+      <c r="E43" s="5"/>
+      <c r="F43" s="6"/>
+      <c r="G43" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="19.5">
+      <c r="A44" s="11">
         <v>42</v>
       </c>
-      <c r="B44" s="4" t="s">
+      <c r="B44" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="C44" s="4" t="s">
+      <c r="C44" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="D44" s="4">
+      <c r="D44" s="11">
         <v>0</v>
       </c>
-      <c r="F44" s="4">
+      <c r="E44" s="5"/>
+      <c r="F44" s="11">
         <f>SUM(D33:D51)</f>
-        <v>330</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="4">
+      </c>
+      <c r="G44" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="19.5">
+      <c r="A45" s="11">
         <v>43</v>
       </c>
-      <c r="B45" s="4" t="s">
+      <c r="B45" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="C45" s="4" t="s">
+      <c r="C45" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="D45" s="4">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="4">
+      <c r="D45" s="11">
+        <v>14</v>
+      </c>
+      <c r="E45" s="5"/>
+      <c r="F45" s="6"/>
+      <c r="G45" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="19.5">
+      <c r="A46" s="11">
         <v>44</v>
       </c>
-      <c r="B46" s="4" t="s">
+      <c r="B46" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="C46" s="4" t="s">
+      <c r="C46" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="D46" s="4">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="4">
+      <c r="D46" s="11">
+        <v>14</v>
+      </c>
+      <c r="E46" s="5"/>
+      <c r="F46" s="6"/>
+      <c r="G46" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="19.5">
+      <c r="A47" s="11">
         <v>45</v>
       </c>
-      <c r="B47" s="4" t="s">
+      <c r="B47" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="C47" s="4" t="s">
+      <c r="C47" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="D47" s="4">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="4">
+      <c r="D47" s="11">
+        <v>14</v>
+      </c>
+      <c r="E47" s="5"/>
+      <c r="F47" s="6"/>
+      <c r="G47" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="19.5">
+      <c r="A48" s="11">
         <v>46</v>
       </c>
-      <c r="B48" s="4" t="s">
+      <c r="B48" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="C48" s="4" t="s">
+      <c r="C48" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="D48" s="4">
+      <c r="D48" s="11">
         <v>35</v>
       </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="4">
+      <c r="E48" s="5"/>
+      <c r="F48" s="6"/>
+      <c r="G48" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="19.5">
+      <c r="A49" s="11">
         <v>47</v>
       </c>
-      <c r="B49" s="4" t="s">
+      <c r="B49" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="C49" s="4" t="s">
+      <c r="C49" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="D49" s="4">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="4">
+      <c r="D49" s="11">
+        <v>14</v>
+      </c>
+      <c r="E49" s="5"/>
+      <c r="F49" s="6"/>
+      <c r="G49" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="19.5">
+      <c r="A50" s="11">
         <v>48</v>
       </c>
-      <c r="B50" s="4" t="s">
+      <c r="B50" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="C50" s="4" t="s">
+      <c r="C50" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="D50" s="4">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" s="4">
+      <c r="D50" s="11">
+        <v>10</v>
+      </c>
+      <c r="E50" s="5"/>
+      <c r="F50" s="6"/>
+      <c r="G50" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="19.5">
+      <c r="A51" s="11">
         <v>49</v>
       </c>
-      <c r="B51" s="4" t="s">
+      <c r="B51" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="C51" s="4" t="s">
+      <c r="C51" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="D51" s="4">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="6">
+      <c r="D51" s="11">
+        <v>10</v>
+      </c>
+      <c r="E51" s="5"/>
+      <c r="F51" s="6"/>
+      <c r="G51" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="52" customHeight="1" ht="19.5">
+      <c r="A52" s="14">
         <v>50</v>
       </c>
-      <c r="B52" s="6" t="s">
+      <c r="B52" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="C52" s="6" t="s">
+      <c r="C52" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="D52" s="6">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="6">
+      <c r="D52" s="14">
+        <v>10</v>
+      </c>
+      <c r="E52" s="5"/>
+      <c r="F52" s="6"/>
+      <c r="G52" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="53" customHeight="1" ht="19.5">
+      <c r="A53" s="14">
         <v>51</v>
       </c>
-      <c r="B53" s="6" t="s">
+      <c r="B53" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="C53" s="6" t="s">
+      <c r="C53" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="D53" s="6">
+      <c r="D53" s="14">
         <v>21</v>
       </c>
-    </row>
-    <row r="54">
-      <c r="A54" s="6">
+      <c r="E53" s="5"/>
+      <c r="F53" s="6"/>
+      <c r="G53" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="54" customHeight="1" ht="19.5">
+      <c r="A54" s="14">
         <v>52</v>
       </c>
-      <c r="B54" s="6" t="s">
+      <c r="B54" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="C54" s="6" t="s">
+      <c r="C54" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="D54" s="6">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" s="6">
+      <c r="D54" s="14">
+        <v>14</v>
+      </c>
+      <c r="E54" s="5"/>
+      <c r="F54" s="6"/>
+      <c r="G54" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="55" customHeight="1" ht="19.5">
+      <c r="A55" s="14">
         <v>53</v>
       </c>
-      <c r="B55" s="6" t="s">
+      <c r="B55" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="C55" s="6" t="s">
+      <c r="C55" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="D55" s="6">
+      <c r="D55" s="14">
         <v>35</v>
       </c>
-    </row>
-    <row r="56">
-      <c r="A56" s="6">
+      <c r="E55" s="5"/>
+      <c r="F55" s="6"/>
+      <c r="G55" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="56" customHeight="1" ht="19.5">
+      <c r="A56" s="14">
         <v>54</v>
       </c>
-      <c r="B56" s="6" t="s">
+      <c r="B56" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="C56" s="6" t="s">
+      <c r="C56" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="D56" s="6">
+      <c r="D56" s="14">
         <v>7</v>
       </c>
-    </row>
-    <row r="57">
-      <c r="A57" s="6">
+      <c r="E56" s="5"/>
+      <c r="F56" s="6"/>
+      <c r="G56" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="57" customHeight="1" ht="19.5">
+      <c r="A57" s="14">
         <v>55</v>
       </c>
-      <c r="B57" s="6" t="s">
+      <c r="B57" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="C57" s="6" t="s">
+      <c r="C57" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="D57" s="6">
+      <c r="D57" s="14">
         <v>7</v>
       </c>
-    </row>
-    <row r="58">
-      <c r="A58" s="6">
+      <c r="E57" s="5"/>
+      <c r="F57" s="6"/>
+      <c r="G57" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="58" customHeight="1" ht="19.5">
+      <c r="A58" s="14">
         <v>56</v>
       </c>
-      <c r="B58" s="6" t="s">
+      <c r="B58" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="C58" s="6" t="s">
+      <c r="C58" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="D58" s="6">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" s="6">
+      <c r="D58" s="14">
+        <v>14</v>
+      </c>
+      <c r="E58" s="5"/>
+      <c r="F58" s="6"/>
+      <c r="G58" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="59" customHeight="1" ht="19.5">
+      <c r="A59" s="14">
         <v>57</v>
       </c>
-      <c r="B59" s="6" t="s">
+      <c r="B59" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="C59" s="6" t="s">
+      <c r="C59" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="D59" s="6">
+      <c r="D59" s="14">
         <v>28</v>
       </c>
-    </row>
-    <row r="60">
-      <c r="A60" s="6">
+      <c r="E59" s="5"/>
+      <c r="F59" s="6"/>
+      <c r="G59" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="60" customHeight="1" ht="19.5">
+      <c r="A60" s="14">
         <v>58</v>
       </c>
-      <c r="B60" s="6" t="s">
+      <c r="B60" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="C60" s="6" t="s">
+      <c r="C60" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="D60" s="6">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" s="6">
+      <c r="D60" s="14">
+        <v>14</v>
+      </c>
+      <c r="E60" s="5"/>
+      <c r="F60" s="6"/>
+      <c r="G60" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="61" customHeight="1" ht="19.5">
+      <c r="A61" s="14">
         <v>59</v>
       </c>
-      <c r="B61" s="6" t="s">
+      <c r="B61" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="C61" s="6" t="s">
+      <c r="C61" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="D61" s="6">
+      <c r="D61" s="14">
         <v>35</v>
       </c>
-    </row>
-    <row r="62">
-      <c r="A62" s="6">
+      <c r="E61" s="5"/>
+      <c r="F61" s="6"/>
+      <c r="G61" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="62" customHeight="1" ht="19.5">
+      <c r="A62" s="14">
         <v>60</v>
       </c>
-      <c r="B62" s="6" t="s">
+      <c r="B62" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="C62" s="6" t="s">
+      <c r="C62" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="D62" s="6">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" s="6">
+      <c r="D62" s="14">
+        <v>10</v>
+      </c>
+      <c r="E62" s="5"/>
+      <c r="F62" s="6"/>
+      <c r="G62" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="63" customHeight="1" ht="19.5">
+      <c r="A63" s="14">
         <v>61</v>
       </c>
-      <c r="B63" s="6" t="s">
+      <c r="B63" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="C63" s="6" t="s">
+      <c r="C63" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="D63" s="6">
+      <c r="D63" s="14">
         <v>0</v>
       </c>
-    </row>
-    <row r="64">
-      <c r="A64" s="6">
+      <c r="E63" s="5"/>
+      <c r="F63" s="6"/>
+      <c r="G63" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="64" customHeight="1" ht="19.5">
+      <c r="A64" s="14">
         <v>62</v>
       </c>
-      <c r="B64" s="6" t="s">
+      <c r="B64" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="C64" s="6" t="s">
+      <c r="C64" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="D64" s="6">
-        <v>14</v>
-      </c>
-      <c r="F64" s="6">
+      <c r="D64" s="14">
+        <v>14</v>
+      </c>
+      <c r="E64" s="5"/>
+      <c r="F64" s="14">
         <f>SUM(D52:D70)</f>
-        <v>300</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" s="6">
+      </c>
+      <c r="G64" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="65" customHeight="1" ht="19.5">
+      <c r="A65" s="14">
         <v>63</v>
       </c>
-      <c r="B65" s="6" t="s">
+      <c r="B65" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="C65" s="6" t="s">
+      <c r="C65" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="D65" s="6">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" s="6">
+      <c r="D65" s="14">
+        <v>14</v>
+      </c>
+      <c r="E65" s="5"/>
+      <c r="F65" s="6"/>
+      <c r="G65" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="66" customHeight="1" ht="19.5">
+      <c r="A66" s="14">
         <v>64</v>
       </c>
-      <c r="B66" s="6" t="s">
+      <c r="B66" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="C66" s="6" t="s">
+      <c r="C66" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="D66" s="6">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" s="6">
+      <c r="D66" s="14">
+        <v>14</v>
+      </c>
+      <c r="E66" s="5"/>
+      <c r="F66" s="6"/>
+      <c r="G66" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="67" customHeight="1" ht="19.5">
+      <c r="A67" s="14">
         <v>65</v>
       </c>
-      <c r="B67" s="6" t="s">
+      <c r="B67" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="C67" s="6" t="s">
+      <c r="C67" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="D67" s="6">
+      <c r="D67" s="14">
         <v>28</v>
       </c>
-    </row>
-    <row r="68">
-      <c r="A68" s="6">
+      <c r="E67" s="5"/>
+      <c r="F67" s="6"/>
+      <c r="G67" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="68" customHeight="1" ht="19.5">
+      <c r="A68" s="14">
         <v>66</v>
       </c>
-      <c r="B68" s="6" t="s">
+      <c r="B68" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="C68" s="6" t="s">
+      <c r="C68" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="D68" s="6">
+      <c r="D68" s="14">
         <v>15</v>
       </c>
-    </row>
-    <row r="69">
-      <c r="A69" s="6">
+      <c r="E68" s="5"/>
+      <c r="F68" s="6"/>
+      <c r="G68" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="69" customHeight="1" ht="19.5">
+      <c r="A69" s="14">
         <v>67</v>
       </c>
-      <c r="B69" s="6" t="s">
+      <c r="B69" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="C69" s="6" t="s">
+      <c r="C69" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="D69" s="6">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" s="6">
+      <c r="D69" s="14">
+        <v>10</v>
+      </c>
+      <c r="E69" s="5"/>
+      <c r="F69" s="6"/>
+      <c r="G69" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="70" customHeight="1" ht="19.5">
+      <c r="A70" s="14">
         <v>68</v>
       </c>
-      <c r="B70" s="6" t="s">
+      <c r="B70" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="C70" s="6" t="s">
+      <c r="C70" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="D70" s="6">
-        <v>10</v>
-      </c>
+      <c r="D70" s="14">
+        <v>10</v>
+      </c>
+      <c r="E70" s="5"/>
+      <c r="F70" s="6"/>
+      <c r="G70" s="5"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7875" right="0.7875" top="1.052778" bottom="1.052778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter>
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>